--- a/二组/第二组.xlsx
+++ b/二组/第二组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,11 +418,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库表格设计完成，项目整合完成，成员对项目需求已了解，成员电脑软件版本已统一，已会用git发送文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前台不太熟练了，晚上回去复习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库表格设计完成，项目整合完成，成员对项目需求已了解，成员电脑软件版本已统一，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未学会用git发送文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个人通报项目完成情况，布置今天的任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -840,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1233,7 +1245,9 @@
       <c r="D23" s="7">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="7">
+        <v>0.3263888888888889</v>
+      </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -1256,7 +1270,9 @@
       <c r="D24" s="7">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
@@ -1279,7 +1295,9 @@
       <c r="D25" s="7">
         <v>0.90277777777777779</v>
       </c>
-      <c r="E25" s="3"/>
+      <c r="E25" s="7">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -1302,7 +1320,9 @@
       <c r="D26" s="7">
         <v>0.81944444444444453</v>
       </c>
-      <c r="E26" s="3"/>
+      <c r="E26" s="7">
+        <v>0.29166666666666669</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
@@ -1325,7 +1345,9 @@
       <c r="D27" s="7">
         <v>0.71527777777777779</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="7">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -1348,7 +1370,9 @@
       <c r="D28" s="7">
         <v>0.81944444444444453</v>
       </c>
-      <c r="E28" s="3"/>
+      <c r="E28" s="7">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
@@ -1388,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1426,14 +1450,16 @@
         <v>101</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="27">
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
@@ -1488,7 +1514,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1512,7 +1538,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="54">
+    <row r="2" spans="1:5" ht="40.5">
       <c r="A2" s="9"/>
       <c r="B2" s="11" t="s">
         <v>34</v>
@@ -1521,9 +1547,11 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="11"/>
+        <v>103</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="9"/>

--- a/二组/第二组.xlsx
+++ b/二组/第二组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在按原型做html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    完善项目资料和资源，核查电脑电脑相关软件的版本。晚上继续完善分配到手里的网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,6 +431,46 @@
   </si>
   <si>
     <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，待修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，待修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善和修改网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大体框架完成80%，剩余各个界面修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -852,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -961,7 +997,7 @@
         <v>78</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -980,7 +1016,7 @@
         <v>79</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -998,7 +1034,9 @@
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1015,7 +1053,9 @@
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="3"/>
+      <c r="F11" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1033,7 +1073,7 @@
         <v>77</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -1052,7 +1092,7 @@
         <v>76</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -1071,7 +1111,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -1089,7 +1129,9 @@
       <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1107,7 +1149,7 @@
         <v>80</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -1125,7 +1167,9 @@
       <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1142,7 +1186,9 @@
       <c r="E18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1159,6 +1205,9 @@
       <c r="E19" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="F19" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1248,7 +1297,9 @@
       <c r="E23" s="7">
         <v>0.3263888888888889</v>
       </c>
-      <c r="F23" s="3"/>
+      <c r="F23" s="7">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -1271,9 +1322,11 @@
         <v>0.90277777777777779</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="3"/>
+        <v>105</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.90277777777777779</v>
+      </c>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -1298,7 +1351,9 @@
       <c r="E25" s="7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>106</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1323,7 +1378,9 @@
       <c r="E26" s="7">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -1348,7 +1405,9 @@
       <c r="E27" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F27" s="3"/>
+      <c r="F27" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -1373,7 +1432,9 @@
       <c r="E28" s="7">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F28" s="3"/>
+      <c r="F28" s="7">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -1413,7 +1474,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1447,10 +1508,10 @@
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>101</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="27">
@@ -1458,9 +1519,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>104</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="2:5">
@@ -1514,7 +1577,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1547,13 +1610,13 @@
         <v>38</v>
       </c>
       <c r="D2" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:5" ht="27">
       <c r="A3" s="9"/>
       <c r="B3" s="11" t="s">
         <v>5</v>
@@ -1561,7 +1624,9 @@
       <c r="C3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">

--- a/二组/第二组.xlsx
+++ b/二组/第二组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,14 @@
   </si>
   <si>
     <t>大体框架完成80%，剩余各个界面修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请假</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员未到齐，现在在的人已完成网页，修改其他人未完成的网页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1300,7 +1308,9 @@
       <c r="F23" s="7">
         <v>0.90277777777777779</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1327,7 +1337,9 @@
       <c r="F24" s="7">
         <v>0.90277777777777779</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1354,7 +1366,9 @@
       <c r="F25" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="G25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1381,7 +1395,9 @@
       <c r="F26" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1408,7 +1424,9 @@
       <c r="F27" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1435,7 +1453,9 @@
       <c r="F28" s="7">
         <v>0.83333333333333337</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1473,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1526,11 +1546,13 @@
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" ht="27">
       <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
     </row>
@@ -1577,7 +1599,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/二组/第二组.xlsx
+++ b/二组/第二组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="17250" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="项目成员" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,18 +450,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成，待修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>正在做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,6 +471,54 @@
   </si>
   <si>
     <t>人员未到齐，现在在的人已完成网页，修改其他人未完成的网页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成，待修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到用户主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到用户主界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确的账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qw5@qq.com 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善网页，测试后台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台完成，未测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页、主界面的加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台完成80%，后台模型基本建成，待完善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +526,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,6 +558,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -558,12 +605,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,9 +651,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -896,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -908,8 +963,8 @@
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1004,10 +1059,10 @@
       <c r="E8" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -1023,11 +1078,13 @@
       <c r="E9" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1042,10 +1099,10 @@
       <c r="E10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -1061,10 +1118,10 @@
       <c r="E11" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1080,10 +1137,10 @@
       <c r="E12" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1099,10 +1156,10 @@
       <c r="E13" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1118,10 +1175,10 @@
       <c r="E14" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1137,10 +1194,10 @@
       <c r="E15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1156,11 +1213,13 @@
       <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1175,11 +1234,13 @@
       <c r="E17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>125</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -1192,12 +1253,12 @@
         <v>27</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G18" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1213,10 +1274,10 @@
       <c r="E19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>111</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -1232,10 +1293,10 @@
       <c r="E20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -1311,7 +1372,9 @@
       <c r="G23" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="7">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1340,7 +1403,9 @@
       <c r="G24" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="7">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -1367,9 +1432,11 @@
         <v>106</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -1396,9 +1463,11 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H26" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -1427,7 +1496,9 @@
       <c r="G27" s="7">
         <v>0.33333333333333331</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -1454,9 +1525,11 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H28" s="3"/>
+        <v>114</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -1493,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1542,7 +1615,7 @@
         <v>104</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" s="11"/>
     </row>
@@ -1551,9 +1624,11 @@
         <v>4</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="11"/>
+        <v>115</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="E4" s="11"/>
     </row>
     <row r="5" spans="2:5">
@@ -1599,7 +1674,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1647,11 +1722,11 @@
         <v>39</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="40.5">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -1659,8 +1734,12 @@
       <c r="C4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="9"/>
@@ -1821,10 +1900,13 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
@@ -1850,12 +1932,22 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1977,6 +2069,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/二组/第二组.xlsx
+++ b/二组/第二组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="132">
   <si>
     <t>周日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -519,6 +519,22 @@
   </si>
   <si>
     <t>前台完成80%，后台模型基本建成，待完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善网页，完善后台功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台完成90%，后台基本功能建立，注册用户待修改，其他小功能待实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -952,7 +968,7 @@
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1064,7 +1080,9 @@
         <v>107</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1085,7 +1103,9 @@
       <c r="H9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1097,14 +1117,16 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
         <v>116</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1123,7 +1145,9 @@
         <v>108</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1142,7 +1166,9 @@
         <v>109</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1161,7 +1187,9 @@
         <v>108</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1180,7 +1208,9 @@
         <v>108</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1199,7 +1229,9 @@
         <v>108</v>
       </c>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -1220,7 +1252,9 @@
       <c r="H16" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>131</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -1241,7 +1275,9 @@
       <c r="H17" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -1260,7 +1296,9 @@
         <v>108</v>
       </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -1279,7 +1317,7 @@
         <v>111</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1298,7 +1336,9 @@
         <v>99</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="I20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -1375,8 +1415,12 @@
       <c r="H23" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
+      <c r="I23" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J23" s="7">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -1406,8 +1450,12 @@
       <c r="H24" s="7">
         <v>0.89583333333333337</v>
       </c>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="I24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -1437,8 +1485,12 @@
       <c r="H25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="I25" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -1468,8 +1520,12 @@
       <c r="H26" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+      <c r="I26" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -1499,8 +1555,12 @@
       <c r="H27" s="7">
         <v>0.72916666666666663</v>
       </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="I27" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -1530,8 +1590,12 @@
       <c r="H28" s="7">
         <v>0.70833333333333337</v>
       </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="I28" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -1540,15 +1604,21 @@
       <c r="P28" s="3"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>128</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="I29" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.89583333333333337</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -1567,7 +1637,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1631,12 +1701,16 @@
       </c>
       <c r="E4" s="11"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" ht="27">
       <c r="B5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="2:5">
@@ -1674,7 +1748,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1741,7 +1815,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="27">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>3</v>
@@ -1749,7 +1823,9 @@
       <c r="C5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5">
